--- a/config_6.29/game_module_config_cjj.xlsx
+++ b/config_6.29/game_module_config_cjj.xlsx
@@ -3568,7 +3568,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_017</t>
+    <t>sys_act_base_style/sys_act_base_weekly_022</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3691,10 +3691,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_003_hflb</t>
-  </si>
-  <si>
-    <t>话费礼包</t>
+    <t>act_ty_gifts_style/act_004_xslb</t>
+  </si>
+  <si>
+    <t>消暑礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3703,7 +3703,7 @@
     <t>act_053_xcns</t>
   </si>
   <si>
-    <t>消除福利</t>
+    <t>消除酷暑</t>
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
@@ -3721,7 +3721,7 @@
     <t>（180天领取）5月10日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_zp1_style/act_ty_zp1_003</t>
+    <t>act_ty_zp1_style/act_ty_zp1_004</t>
   </si>
   <si>
     <t>通用转盘皮肤</t>
@@ -3784,8 +3784,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3882,7 +3882,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3896,8 +3903,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3911,24 +3961,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3940,48 +4001,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3996,38 +4024,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4099,7 +4099,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4111,7 +4135,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4123,19 +4189,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4147,121 +4255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4296,6 +4296,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4307,6 +4331,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4329,38 +4377,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4375,24 +4393,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4401,10 +4401,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4413,137 +4413,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5050,11 +5050,11 @@
   <dimension ref="A1:AJ337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C273" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C315" sqref="C315"/>
+      <selection pane="bottomRight" activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13565,14 +13565,14 @@
       <c r="D329" t="s">
         <v>958</v>
       </c>
-      <c r="E329" s="5">
-        <v>0</v>
-      </c>
-      <c r="F329" s="5">
-        <v>0</v>
-      </c>
-      <c r="G329" s="5">
-        <v>0</v>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
       </c>
       <c r="I329" s="31" t="s">
         <v>959</v>
@@ -13588,14 +13588,14 @@
       <c r="C330" s="31" t="s">
         <v>961</v>
       </c>
-      <c r="E330" s="5">
-        <v>0</v>
-      </c>
-      <c r="F330" s="5">
-        <v>0</v>
-      </c>
-      <c r="G330" s="5">
-        <v>0</v>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
       </c>
       <c r="I330" s="31" t="s">
         <v>962</v>

--- a/config_6.29/game_module_config_cjj.xlsx
+++ b/config_6.29/game_module_config_cjj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="990">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3769,6 +3769,15 @@
     <t>长期</t>
   </si>
   <si>
+    <t>act_027_qyzl</t>
+  </si>
+  <si>
+    <t>七月赠礼</t>
+  </si>
+  <si>
+    <t>Act_027_QYZLManager</t>
+  </si>
+  <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
 (也许你的活动很简单，最好是统一都有一个活动自己的管理器)，这个脚本应该提供以下接口：
 Init 初始化Lua
@@ -3783,9 +3792,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3882,6 +3891,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3889,15 +3921,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3911,91 +3942,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4023,11 +3971,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4099,7 +4108,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4111,7 +4174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4123,7 +4198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4135,13 +4216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4153,13 +4240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4171,7 +4258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4183,91 +4270,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4296,26 +4305,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4331,45 +4349,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4393,6 +4372,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4401,10 +4410,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4413,139 +4422,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4720,7 +4729,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5047,14 +5062,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ337"/>
+  <dimension ref="A1:AJ338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C273" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D324" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E280" sqref="E280"/>
+      <selection pane="bottomRight" activeCell="J338" sqref="J338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13548,7 +13563,7 @@
       <c r="G328">
         <v>0</v>
       </c>
-      <c r="I328" s="58">
+      <c r="I328" s="59">
         <v>44355</v>
       </c>
     </row>
@@ -13747,7 +13762,7 @@
       <c r="G336">
         <v>1</v>
       </c>
-      <c r="I336" s="59">
+      <c r="I336" s="60">
         <v>44414</v>
       </c>
     </row>
@@ -13775,6 +13790,32 @@
       </c>
       <c r="I337" t="s">
         <v>985</v>
+      </c>
+    </row>
+    <row r="338" ht="15.75" spans="1:9">
+      <c r="A338" s="5">
+        <v>337</v>
+      </c>
+      <c r="B338" s="58" t="s">
+        <v>986</v>
+      </c>
+      <c r="C338" t="s">
+        <v>987</v>
+      </c>
+      <c r="D338" s="58" t="s">
+        <v>988</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" s="61">
+        <v>44403</v>
       </c>
     </row>
   </sheetData>
@@ -13804,7 +13845,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>
